--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,6 +89,12 @@
   </si>
   <si>
     <t>Scn5a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +525,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.04968833333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.149065</v>
+      </c>
+      <c r="I2">
+        <v>0.0179140656029871</v>
+      </c>
+      <c r="J2">
+        <v>0.02630081541085045</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.0553755</v>
+      </c>
+      <c r="N2">
+        <v>0.110751</v>
+      </c>
+      <c r="O2">
+        <v>0.01394734395224909</v>
+      </c>
+      <c r="P2">
+        <v>0.01382642777644959</v>
+      </c>
+      <c r="Q2">
+        <v>0.0027515163025</v>
+      </c>
+      <c r="R2">
+        <v>0.016509097815</v>
+      </c>
+      <c r="S2">
+        <v>0.0002498536345480157</v>
+      </c>
+      <c r="T2">
+        <v>0.0003636463247398561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.04968833333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.149065</v>
+      </c>
+      <c r="I3">
+        <v>0.0179140656029871</v>
+      </c>
+      <c r="J3">
+        <v>0.02630081541085045</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.008599000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.025797</v>
+      </c>
+      <c r="O3">
+        <v>0.002165817205179004</v>
+      </c>
+      <c r="P3">
+        <v>0.003220561054519329</v>
+      </c>
+      <c r="Q3">
+        <v>0.0004272699783333334</v>
+      </c>
+      <c r="R3">
+        <v>0.003845429805</v>
+      </c>
+      <c r="S3">
+        <v>3.879859149765486E-05</v>
+      </c>
+      <c r="T3">
+        <v>8.470338181428672E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.04968833333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.149065</v>
+      </c>
+      <c r="I4">
+        <v>0.0179140656029871</v>
+      </c>
+      <c r="J4">
+        <v>0.02630081541085045</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.06084433333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.182533</v>
+      </c>
+      <c r="O4">
+        <v>0.01532477078392601</v>
+      </c>
+      <c r="P4">
+        <v>0.02278786955710263</v>
+      </c>
+      <c r="Q4">
+        <v>0.003023253516111111</v>
+      </c>
+      <c r="R4">
+        <v>0.027209281645</v>
+      </c>
+      <c r="S4">
+        <v>0.0002745289491739905</v>
+      </c>
+      <c r="T4">
+        <v>0.0005993395508278946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2.57639749872259</v>
-      </c>
-      <c r="H2">
-        <v>2.57639749872259</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2.95570569684686</v>
-      </c>
-      <c r="N2">
-        <v>2.95570569684686</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>7.615072764316359</v>
-      </c>
-      <c r="R2">
-        <v>7.615072764316359</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.04968833333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.149065</v>
+      </c>
+      <c r="I5">
+        <v>0.0179140656029871</v>
+      </c>
+      <c r="J5">
+        <v>0.02630081541085045</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.845507</v>
+      </c>
+      <c r="N5">
+        <v>7.691013999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.9685620680586459</v>
+      </c>
+      <c r="P5">
+        <v>0.9601651416119283</v>
+      </c>
+      <c r="Q5">
+        <v>0.1910768336516666</v>
+      </c>
+      <c r="R5">
+        <v>1.14646100191</v>
+      </c>
+      <c r="S5">
+        <v>0.01735088442776744</v>
+      </c>
+      <c r="T5">
+        <v>0.02525312615346841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.07059666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.21179</v>
+      </c>
+      <c r="I6">
+        <v>0.02545211789525803</v>
+      </c>
+      <c r="J6">
+        <v>0.03736792470307595</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.0553755</v>
+      </c>
+      <c r="N6">
+        <v>0.110751</v>
+      </c>
+      <c r="O6">
+        <v>0.01394734395224909</v>
+      </c>
+      <c r="P6">
+        <v>0.01382642777644959</v>
+      </c>
+      <c r="Q6">
+        <v>0.003909325715</v>
+      </c>
+      <c r="R6">
+        <v>0.02345595429</v>
+      </c>
+      <c r="S6">
+        <v>0.000354989442598358</v>
+      </c>
+      <c r="T6">
+        <v>0.0005166649120628862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.07059666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.21179</v>
+      </c>
+      <c r="I7">
+        <v>0.02545211789525803</v>
+      </c>
+      <c r="J7">
+        <v>0.03736792470307595</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.008599000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.025797</v>
+      </c>
+      <c r="O7">
+        <v>0.002165817205179004</v>
+      </c>
+      <c r="P7">
+        <v>0.003220561054519329</v>
+      </c>
+      <c r="Q7">
+        <v>0.0006070607366666668</v>
+      </c>
+      <c r="R7">
+        <v>0.005463546630000001</v>
+      </c>
+      <c r="S7">
+        <v>5.512463484579427E-05</v>
+      </c>
+      <c r="T7">
+        <v>0.0001203456829869371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.07059666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.21179</v>
+      </c>
+      <c r="I8">
+        <v>0.02545211789525803</v>
+      </c>
+      <c r="J8">
+        <v>0.03736792470307595</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06084433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.182533</v>
+      </c>
+      <c r="O8">
+        <v>0.01532477078392601</v>
+      </c>
+      <c r="P8">
+        <v>0.02278786955710263</v>
+      </c>
+      <c r="Q8">
+        <v>0.004295407118888889</v>
+      </c>
+      <c r="R8">
+        <v>0.03865866407</v>
+      </c>
+      <c r="S8">
+        <v>0.0003900478727102905</v>
+      </c>
+      <c r="T8">
+        <v>0.0008515353937533278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.07059666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.21179</v>
+      </c>
+      <c r="I9">
+        <v>0.02545211789525803</v>
+      </c>
+      <c r="J9">
+        <v>0.03736792470307595</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.845507</v>
+      </c>
+      <c r="N9">
+        <v>7.691013999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.9685620680586459</v>
+      </c>
+      <c r="P9">
+        <v>0.9601651416119283</v>
+      </c>
+      <c r="Q9">
+        <v>0.2714799758433333</v>
+      </c>
+      <c r="R9">
+        <v>1.62887985506</v>
+      </c>
+      <c r="S9">
+        <v>0.02465195594510359</v>
+      </c>
+      <c r="T9">
+        <v>0.03587937871427279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.65342</v>
+      </c>
+      <c r="H10">
+        <v>5.306839999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9566338165017548</v>
+      </c>
+      <c r="J10">
+        <v>0.9363312598860736</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.0553755</v>
+      </c>
+      <c r="N10">
+        <v>0.110751</v>
+      </c>
+      <c r="O10">
+        <v>0.01394734395224909</v>
+      </c>
+      <c r="P10">
+        <v>0.01382642777644959</v>
+      </c>
+      <c r="Q10">
+        <v>0.14693445921</v>
+      </c>
+      <c r="R10">
+        <v>0.5877378368399999</v>
+      </c>
+      <c r="S10">
+        <v>0.01334250087510272</v>
+      </c>
+      <c r="T10">
+        <v>0.01294611653964685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.65342</v>
+      </c>
+      <c r="H11">
+        <v>5.306839999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9566338165017548</v>
+      </c>
+      <c r="J11">
+        <v>0.9363312598860736</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.008599000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.025797</v>
+      </c>
+      <c r="O11">
+        <v>0.002165817205179004</v>
+      </c>
+      <c r="P11">
+        <v>0.003220561054519329</v>
+      </c>
+      <c r="Q11">
+        <v>0.02281675858</v>
+      </c>
+      <c r="R11">
+        <v>0.13690055148</v>
+      </c>
+      <c r="S11">
+        <v>0.002071893978835555</v>
+      </c>
+      <c r="T11">
+        <v>0.003015511989718105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.65342</v>
+      </c>
+      <c r="H12">
+        <v>5.306839999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.9566338165017548</v>
+      </c>
+      <c r="J12">
+        <v>0.9363312598860736</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06084433333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.182533</v>
+      </c>
+      <c r="O12">
+        <v>0.01532477078392601</v>
+      </c>
+      <c r="P12">
+        <v>0.02278786955710263</v>
+      </c>
+      <c r="Q12">
+        <v>0.1614455709533333</v>
+      </c>
+      <c r="R12">
+        <v>0.9686734257199999</v>
+      </c>
+      <c r="S12">
+        <v>0.01466019396204172</v>
+      </c>
+      <c r="T12">
+        <v>0.02133699461252141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.65342</v>
+      </c>
+      <c r="H13">
+        <v>5.306839999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.9566338165017548</v>
+      </c>
+      <c r="J13">
+        <v>0.9363312598860736</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.845507</v>
+      </c>
+      <c r="N13">
+        <v>7.691013999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.9685620680586459</v>
+      </c>
+      <c r="P13">
+        <v>0.9601651416119283</v>
+      </c>
+      <c r="Q13">
+        <v>10.20374518394</v>
+      </c>
+      <c r="R13">
+        <v>40.81498073575999</v>
+      </c>
+      <c r="S13">
+        <v>0.9265592276857748</v>
+      </c>
+      <c r="T13">
+        <v>0.8990326367441871</v>
       </c>
     </row>
   </sheetData>
